--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0307B24A-FF01-40F6-A316-942C2725A3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -198,11 +198,347 @@
     <t>○○○を×××する。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>No.1が採用された場合は複数のファイル指定を可能にする。</t>
+    <rPh sb="5" eb="7">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.5が採用された場合は複数のファイル指定を可能にする。</t>
+    <rPh sb="5" eb="7">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.9が採用された場合は複数のファイル指定を可能にする。</t>
+    <rPh sb="5" eb="7">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル変換機能のTSV⇔CSV変換機能が現在フルパス指定をファイル名指定にする。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル変換機能のTSV⇔CSV変換機能をDB関連機能と連動して使用できるようにする。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダ内のすべてを変換出来るようにする。</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル変換機能のCSV⇔TSV変換機能が現在フルパス指定をファイル名指定にする。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル変換機能のCSV⇔TSV変換機能をDB関連機能と連動して使用できるようにする。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エビデンス成型機能が現在フルパス指定をファイル名指定にする。</t>
+    <rPh sb="5" eb="7">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エビデンス成型機能をDB関連機能と連動して使用できるようにする。</t>
+    <rPh sb="5" eb="7">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダ内のすべてを対象出来るようにする。</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在、選択されたTBLの全権データを取得しているが、任意の数選択できるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを検索する機能の追加する。項目等で検索する。</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを追加する機能の追加、任意の数選択可能の機能追加をする。</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを削除する機能の追加、任意の数選択可能の機能追加をする。</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,10 +667,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -707,340 +1043,436 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
-        <v/>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="1">
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
-        <v/>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="str">
@@ -1048,20 +1480,20 @@
         <v/>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="str">
@@ -1069,20 +1501,20 @@
         <v/>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="6"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="str">
@@ -1090,20 +1522,20 @@
         <v/>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="str">
@@ -1111,20 +1543,20 @@
         <v/>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="6"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="str">
@@ -1132,20 +1564,20 @@
         <v/>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="str">
@@ -1153,20 +1585,20 @@
         <v/>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="6"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="str">
@@ -1174,20 +1606,20 @@
         <v/>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="str">
@@ -1195,20 +1627,20 @@
         <v/>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="6"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="str">
@@ -1216,23 +1648,115 @@
         <v/>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="6"/>
+      <c r="Q28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:O27"/>
@@ -1249,98 +1773,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:O26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">
@@ -1349,7 +1781,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"採用,不採用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1358,13 +1790,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C3:D28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$C:$C</xm:f>
           </x14:formula1>
@@ -1377,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0307B24A-FF01-40F6-A316-942C2725A3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1409EA25-C1A7-4F92-AE97-D9B8B3B837AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -426,31 +426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在、選択されたTBLの全権データを取得しているが、任意の数選択できるようにする。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゼンケン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データを検索する機能の追加する。項目等で検索する。</t>
     <rPh sb="4" eb="6">
       <t>ケンサク</t>
@@ -531,6 +506,41 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー上でバッチを終了できるようにする。</t>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在、選択されたTBLの全件データを取得しているが、任意の数選択できるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -651,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,12 +677,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,6 +697,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,13 +1017,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1051,7 @@
       </c>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1027,22 +1064,22 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="10"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
       <c r="P3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
         <v>1</v>
@@ -1050,26 +1087,26 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
         <v>2</v>
@@ -1077,26 +1114,26 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1104,26 +1141,26 @@
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1131,26 +1168,26 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1158,26 +1195,26 @@
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="2:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1185,26 +1222,26 @@
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1212,26 +1249,26 @@
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1239,26 +1276,26 @@
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1266,26 +1303,26 @@
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="5"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1293,26 +1330,26 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1320,26 +1357,26 @@
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="5"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1347,26 +1384,26 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1374,26 +1411,26 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1401,26 +1438,26 @@
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1428,26 +1465,26 @@
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1455,216 +1492,314 @@
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="str">
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="str">
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="str">
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="str">
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="str">
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="str">
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="str">
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="str">
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="17"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="P4:Q4"/>
@@ -1681,98 +1816,6 @@
     <mergeCell ref="H3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">
@@ -1816,9 +1859,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1834,7 +1877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1842,7 +1885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1850,7 +1893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1858,7 +1901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1866,7 +1909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1874,7 +1917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1882,7 +1925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1890,7 +1933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1898,7 +1941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>24</v>
       </c>

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1409EA25-C1A7-4F92-AE97-D9B8B3B837AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0307B24A-FF01-40F6-A316-942C2725A3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -426,6 +426,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>現在、選択されたTBLの全権データを取得しているが、任意の数選択できるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>データを検索する機能の追加する。項目等で検索する。</t>
     <rPh sb="4" eb="6">
       <t>ケンサク</t>
@@ -506,41 +531,6 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー上でバッチを終了できるようにする。</t>
-    <rPh sb="4" eb="5">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在、選択されたTBLの全件データを取得しているが、任意の数選択できるようにする。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゼンケン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -661,7 +651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,10 +667,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,33 +687,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,13 +980,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1014,7 @@
       </c>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1064,22 +1027,22 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="2:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
         <v>1</v>
@@ -1087,26 +1050,26 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
         <v>2</v>
@@ -1114,26 +1077,26 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="12" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1141,26 +1104,26 @@
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="12" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1168,26 +1131,26 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="12" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1195,26 +1158,26 @@
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="12" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="2:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1222,26 +1185,26 @@
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1249,26 +1212,26 @@
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="12" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1276,26 +1239,26 @@
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="12" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1303,26 +1266,26 @@
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="12" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1330,26 +1293,26 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="12" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="5"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1357,26 +1320,26 @@
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="12" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1384,26 +1347,26 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="12" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="2:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1411,26 +1374,26 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1438,26 +1401,26 @@
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1465,26 +1428,26 @@
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1492,222 +1455,308 @@
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="17"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="6"/>
+      <c r="Q28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:O27"/>
@@ -1724,98 +1773,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:O26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">
@@ -1859,9 +1816,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1877,7 +1834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1885,7 +1842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1901,7 +1858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1909,7 +1866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1917,7 +1874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1925,7 +1882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +1890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1941,7 +1898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>24</v>
       </c>

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0307B24A-FF01-40F6-A316-942C2725A3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -426,31 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在、選択されたTBLの全権データを取得しているが、任意の数選択できるようにする。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゼンケン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データを検索する機能の追加する。項目等で検索する。</t>
     <rPh sb="4" eb="6">
       <t>ケンサク</t>
@@ -531,6 +505,82 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー上でバッチを終了できるようにする。</t>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在、選択されたTBLの全件データを取得しているが、任意の数選択できるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスを指定する際、絶対パスではなくもっと短い入力で済ませられるようにする。</t>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したファイルの拡張子で、自動的にCSVかTSVへの変換を判断する。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンダン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -538,7 +588,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,6 +723,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,6 +755,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,10 +1052,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:O22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -990,59 +1069,59 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="9" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="2:17" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
         <v>1</v>
@@ -1056,20 +1135,20 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
         <v>2</v>
@@ -1083,16 +1162,16 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="5"/>
     </row>
@@ -1110,16 +1189,16 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
     </row>
@@ -1137,20 +1216,20 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1164,20 +1243,20 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1191,16 +1270,16 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
     </row>
@@ -1218,16 +1297,16 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
     </row>
@@ -1245,16 +1324,16 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
     </row>
@@ -1272,16 +1351,16 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="5"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
     </row>
@@ -1299,16 +1378,16 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
     </row>
@@ -1326,16 +1405,16 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="5"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
     </row>
@@ -1353,20 +1432,20 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="5"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1380,16 +1459,16 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5"/>
+      <c r="H16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
     </row>
@@ -1407,16 +1486,16 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="5"/>
+      <c r="H17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
     </row>
@@ -1434,16 +1513,16 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="5"/>
+      <c r="H18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="5"/>
     </row>
@@ -1461,79 +1540,97 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="5"/>
+      <c r="H19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="5"/>
+      <c r="H20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C21" s="4"/>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="5"/>
+      <c r="H21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="5"/>
+      <c r="H22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="12"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
     </row>
@@ -1547,14 +1644,14 @@
       <c r="E23" s="4"/>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="5"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="5"/>
     </row>
@@ -1568,14 +1665,14 @@
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="5"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="5"/>
     </row>
@@ -1589,14 +1686,14 @@
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="5"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="5"/>
     </row>
@@ -1610,14 +1707,14 @@
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="5"/>
     </row>
@@ -1631,14 +1728,14 @@
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="5"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="5"/>
     </row>
@@ -1652,14 +1749,14 @@
       <c r="E28" s="4"/>
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="5"/>
     </row>
@@ -1781,7 +1878,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28">
       <formula1>"採用,不採用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1790,13 +1887,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C3:D28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$C:$C</xm:f>
           </x14:formula1>
@@ -1809,7 +1906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
@@ -717,11 +717,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -730,39 +763,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22:O22"/>
     </sheetView>
   </sheetViews>
@@ -1069,57 +1069,57 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="13"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="15" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="2:17" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
@@ -1129,24 +1129,24 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
@@ -1156,24 +1156,24 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
@@ -1183,24 +1183,24 @@
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
@@ -1210,24 +1210,24 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
@@ -1237,24 +1237,24 @@
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="2:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
@@ -1264,24 +1264,24 @@
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
@@ -1291,24 +1291,24 @@
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
@@ -1318,24 +1318,24 @@
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
@@ -1345,24 +1345,24 @@
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
@@ -1372,24 +1372,24 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
@@ -1399,24 +1399,24 @@
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="10" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
@@ -1426,24 +1426,24 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="10" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
@@ -1453,24 +1453,24 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="10" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
@@ -1480,24 +1480,24 @@
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="10" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
@@ -1507,24 +1507,24 @@
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="10" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
@@ -1534,24 +1534,24 @@
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="10" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="12"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
@@ -1561,24 +1561,24 @@
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="7" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
@@ -1588,24 +1588,24 @@
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
@@ -1615,24 +1615,24 @@
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="10" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="12"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="str">
@@ -1640,20 +1640,20 @@
         <v/>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="str">
@@ -1661,20 +1661,20 @@
         <v/>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="str">
@@ -1682,20 +1682,20 @@
         <v/>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="str">
@@ -1703,20 +1703,20 @@
         <v/>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="str">
@@ -1724,20 +1724,20 @@
         <v/>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="str">
@@ -1745,23 +1745,115 @@
         <v/>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="P4:Q4"/>
@@ -1778,98 +1870,6 @@
     <mergeCell ref="H3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/04_案件/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_4BD465916F4FADEC0CE36BA1029DC99C8FC54DEA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D79B2308-4334-4F99-9EC6-7EE15DB0BD8F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -198,25 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.1が採用された場合は複数のファイル指定を可能にする。</t>
-    <rPh sb="5" eb="7">
-      <t>サイヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.5が採用された場合は複数のファイル指定を可能にする。</t>
     <rPh sb="5" eb="7">
       <t>サイヨウ</t>
@@ -447,68 +430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データを追加する機能の追加、任意の数選択可能の機能追加をする。</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データを削除する機能の追加、任意の数選択可能の機能追加をする。</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニュー上でバッチを終了できるようにする。</t>
     <rPh sb="4" eb="5">
       <t>ジョウ</t>
@@ -581,6 +502,127 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1が採用された場合は複数のファイル指定を可能にする。（ワイルドカードを使用可能にする）</t>
+    <rPh sb="5" eb="7">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不採用</t>
+  </si>
+  <si>
+    <t>No1と重複</t>
+    <rPh sb="4" eb="6">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを追加する機能の追加、任意の数選択可能の機能追加をする。（一括のみ）</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを削除する機能の追加、任意の数選択可能の機能追加をする。（一括のみ）</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イッカツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -588,7 +630,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -615,7 +657,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +673,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,11 +783,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -756,14 +831,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,76 +1130,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:O22"/>
+      <selection activeCell="E15" sqref="E15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="12" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="13"/>
-    </row>
-    <row r="4" spans="2:17" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="2:18" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
         <v>1</v>
@@ -1129,26 +1207,31 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
         <v>2</v>
@@ -1156,26 +1239,31 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1183,26 +1271,31 @@
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1210,26 +1303,31 @@
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="2:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1237,26 +1335,31 @@
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="2:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1264,26 +1367,28 @@
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1291,26 +1396,31 @@
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1318,26 +1428,31 @@
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1345,26 +1460,31 @@
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1372,26 +1492,31 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1399,26 +1524,31 @@
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1426,26 +1556,31 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="2:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1453,26 +1588,31 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1480,26 +1620,31 @@
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1507,26 +1652,31 @@
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1534,26 +1684,31 @@
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1561,26 +1716,31 @@
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1588,26 +1748,31 @@
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1615,153 +1780,250 @@
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="6"/>
+      <c r="Q28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:O27"/>
@@ -1778,98 +2040,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:O26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">
@@ -1878,7 +2048,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"採用,不採用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1887,13 +2057,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C3:D28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$C:$C</xm:f>
           </x14:formula1>
@@ -1906,16 +2076,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1923,7 +2093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1931,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1939,7 +2109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1947,7 +2117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1955,7 +2125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1963,7 +2133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1971,7 +2141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1979,7 +2149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1987,7 +2157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1995,7 +2165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>24</v>
       </c>

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/04_案件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_4BD465916F4FADEC0CE36BA1029DC99C8FC54DEA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D79B2308-4334-4F99-9EC6-7EE15DB0BD8F}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_4BD465916F4FADEC0CE36BA1029DC99C8FC54DEA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78FFC0E6-F0F4-4E30-80C3-0CAE72176C7B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="影響調査" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -623,6 +624,55 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>イッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象要件案</t>
+    <rPh sb="0" eb="5">
+      <t>タイショウヨウケンアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在フルパス指定をファイル名指定にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル変換機能とエビデンス成型機能をDB関連機能と連動して使用できるようにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影響クラス</t>
+    <rPh sb="0" eb="2">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダ内のすべてを変換出来るようにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを追加する機能の追加、任意の数選択可能の機能追加をする。（一括のみ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを削除する機能の追加、任意の数選択可能の機能追加をする。（一括のみ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー上でバッチを終了できるようにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したファイルの拡張子で、自動的にCSVかTSVへの変換を判断する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発案者</t>
+    <rPh sb="0" eb="3">
+      <t>ハツアンシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -767,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,6 +830,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,18 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1147,87 +1200,87 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="13"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="15" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="2:18" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="4" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="22" t="s">
+      <c r="Q4" s="10"/>
+      <c r="R4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1236,30 +1289,30 @@
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="4" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="21" t="s">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1268,30 +1321,30 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="4" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="24" t="s">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1300,30 +1353,30 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="4" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="23" t="s">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1332,30 +1385,30 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="4" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="22" t="s">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1364,59 +1417,59 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="4" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="4" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="24" t="s">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1425,30 +1478,30 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="4" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="23" t="s">
+      <c r="Q11" s="10"/>
+      <c r="R11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1457,30 +1510,30 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="4" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="22" t="s">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1489,30 +1542,30 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="4" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="21" t="s">
+      <c r="Q13" s="10"/>
+      <c r="R13" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1521,30 +1574,30 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="10" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="4" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="24" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1553,30 +1606,30 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="10" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="4" t="s">
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="23" t="s">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1585,29 +1638,29 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="10" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="4" t="s">
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="10"/>
       <c r="R16" t="s">
         <v>47</v>
       </c>
@@ -1617,29 +1670,29 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="10" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="4" t="s">
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="10"/>
       <c r="R17" t="s">
         <v>47</v>
       </c>
@@ -1649,29 +1702,29 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="10" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="4" t="s">
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="10"/>
       <c r="R18" t="s">
         <v>47</v>
       </c>
@@ -1681,29 +1734,29 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="10" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="4" t="s">
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="10"/>
       <c r="R19" t="s">
         <v>47</v>
       </c>
@@ -1713,29 +1766,29 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="7" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="4" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="10"/>
       <c r="R20" t="s">
         <v>44</v>
       </c>
@@ -1745,29 +1798,29 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="4" t="s">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="10"/>
       <c r="R21" t="s">
         <v>49</v>
       </c>
@@ -1777,29 +1830,29 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="10" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="4" t="s">
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="10"/>
       <c r="R22" t="s">
         <v>46</v>
       </c>
@@ -1809,126 +1862,126 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="5"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="5"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="5"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="108">
@@ -2076,6 +2129,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DEC05F-9C9E-4CD6-A6FD-FCFD463DB6D8}">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B9" si="0">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/04_案件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_4BD465916F4FADEC0CE36BA1029DC99C8FC54DEA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78FFC0E6-F0F4-4E30-80C3-0CAE72176C7B}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_4BD465916F4FADEC0CE36BA1029DC99C8FC54DEA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26C95D10-F348-4FF9-B739-F43499DE888C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -674,6 +674,11 @@
     <rPh sb="0" eb="3">
       <t>ハツアンシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・W01ToolMenu.java
+・W01ToolMenu.bat</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -817,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,11 +853,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -863,38 +901,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,57 +1208,57 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="23" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="21"/>
+      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="2:18" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
@@ -1260,26 +1268,26 @@
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="15" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
       <c r="P4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="5" t="s">
         <v>44</v>
       </c>
@@ -1292,26 +1300,26 @@
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="15" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1324,26 +1332,26 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="15" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
@@ -1356,26 +1364,26 @@
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="15" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
       <c r="P7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="10"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1388,26 +1396,26 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="15" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="5" t="s">
         <v>44</v>
       </c>
@@ -1420,26 +1428,26 @@
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="15" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="10"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
@@ -1449,26 +1457,26 @@
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="15" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="10"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="7" t="s">
         <v>47</v>
       </c>
@@ -1481,26 +1489,26 @@
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="15" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="10"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1513,26 +1521,26 @@
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="10"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1545,26 +1553,26 @@
       <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="15" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="10"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1577,26 +1585,26 @@
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="15" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1609,26 +1617,26 @@
       <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="15" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
       <c r="P15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="10"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="6" t="s">
         <v>46</v>
       </c>
@@ -1641,26 +1649,26 @@
       <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="15" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
       <c r="P16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="11"/>
       <c r="R16" t="s">
         <v>47</v>
       </c>
@@ -1673,26 +1681,26 @@
       <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="15" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
       <c r="P17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="10"/>
+      <c r="Q17" s="11"/>
       <c r="R17" t="s">
         <v>47</v>
       </c>
@@ -1705,26 +1713,26 @@
       <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="15" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
       <c r="P18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="11"/>
       <c r="R18" t="s">
         <v>47</v>
       </c>
@@ -1737,26 +1745,26 @@
       <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="15" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
       <c r="P19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="10"/>
+      <c r="Q19" s="11"/>
       <c r="R19" t="s">
         <v>47</v>
       </c>
@@ -1769,26 +1777,26 @@
       <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="12" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="14"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
       <c r="P20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="10"/>
+      <c r="Q20" s="11"/>
       <c r="R20" t="s">
         <v>44</v>
       </c>
@@ -1801,26 +1809,26 @@
       <c r="C21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
       <c r="P21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="10"/>
+      <c r="Q21" s="11"/>
       <c r="R21" t="s">
         <v>49</v>
       </c>
@@ -1833,26 +1841,26 @@
       <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="15" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
       <c r="P22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="10"/>
+      <c r="Q22" s="11"/>
       <c r="R22" t="s">
         <v>46</v>
       </c>
@@ -1863,20 +1871,20 @@
         <v/>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="10"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="str">
@@ -1884,20 +1892,20 @@
         <v/>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="10"/>
+      <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="str">
@@ -1905,20 +1913,20 @@
         <v/>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="14"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="10"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="str">
@@ -1926,20 +1934,20 @@
         <v/>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="25"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="10"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="str">
@@ -1947,20 +1955,20 @@
         <v/>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="25"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="10"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="str">
@@ -1968,23 +1976,115 @@
         <v/>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="25"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="10"/>
+      <c r="Q28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="P4:Q4"/>
@@ -2001,98 +2101,6 @@
     <mergeCell ref="H3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">
@@ -2231,7 +2239,9 @@
       <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="26" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
@@ -2249,6 +2259,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/04_案件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_4BD465916F4FADEC0CE36BA1029DC99C8FC54DEA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26C95D10-F348-4FF9-B739-F43499DE888C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
     <sheet name="影響調査" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -681,11 +680,17 @@
 ・W01ToolMenu.bat</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・W01ToolMenu.java
+・W01ConvertFileCsvToTsv.java
+・W01ConvertFileTsvToCsv.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -822,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,14 +855,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -892,17 +909,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,100 +1199,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="20" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="17" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="18"/>
-    </row>
-    <row r="4" spans="2:18" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="2:18" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="9" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q4" s="11"/>
@@ -1292,31 +1300,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="9" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q5" s="11"/>
@@ -1324,31 +1332,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="9" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="10" t="s">
         <v>48</v>
       </c>
       <c r="Q6" s="11"/>
@@ -1356,31 +1364,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="9" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="11"/>
@@ -1388,31 +1396,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="9" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q8" s="11"/>
@@ -1420,60 +1428,60 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="9" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="9" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="Q10" s="11"/>
@@ -1481,31 +1489,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="9" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q11" s="11"/>
@@ -1513,31 +1521,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="9" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q12" s="11"/>
@@ -1545,31 +1553,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="9" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q13" s="11"/>
@@ -1577,31 +1585,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="9" t="s">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="Q14" s="11"/>
@@ -1609,31 +1617,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="9" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="11"/>
@@ -1641,31 +1649,31 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="9" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="10" t="s">
         <v>48</v>
       </c>
       <c r="Q16" s="11"/>
@@ -1673,31 +1681,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="9" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q17" s="11"/>
@@ -1705,31 +1713,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="9" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q18" s="11"/>
@@ -1737,31 +1745,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="9" t="s">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="Q19" s="11"/>
@@ -1769,31 +1777,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="9" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q20" s="11"/>
@@ -1801,31 +1809,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="9" t="s">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="10" t="s">
         <v>48</v>
       </c>
       <c r="Q21" s="11"/>
@@ -1833,31 +1841,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="9" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="10" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="11"/>
@@ -1865,134 +1873,226 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="9"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="9"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="10"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="9"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="9"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="9"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="9"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="10"/>
       <c r="Q28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:O27"/>
@@ -2009,98 +2109,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:O26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">
@@ -2109,7 +2117,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28">
       <formula1>"採用,不採用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2118,13 +2126,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C3:D28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$C:$C</xm:f>
           </x14:formula1>
@@ -2137,20 +2145,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DEC05F-9C9E-4CD6-A6FD-FCFD463DB6D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2176,7 +2186,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <f>B3+1</f>
         <v>2</v>
@@ -2189,7 +2199,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B9" si="0">B4+1</f>
         <v>3</v>
@@ -2202,7 +2212,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2215,7 +2225,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2228,7 +2238,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2239,11 +2249,11 @@
       <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2254,7 +2264,9 @@
       <c r="D9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="27" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2264,16 +2276,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2289,7 +2301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2297,7 +2309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2305,7 +2317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2321,7 +2333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2329,7 +2341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2337,7 +2349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2345,7 +2357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2353,7 +2365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>24</v>
       </c>

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Documents\GitHub\wiss1tool-wiss1\document\04_案件\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C072E-D6A5-44E1-AF75-8C633BB92925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
     <sheet name="影響調査" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -686,11 +686,29 @@
 ・W01ConvertFileTsvToCsv.java</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・W01ConvertFileCsvToTsv.java
+・W01ConvertFileTsvToCsv.java
+・W01ShapeEvidence.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・W01ToolMenu.java
+・W01ConvertFileCsvToTsv.java
+・W01ConvertFileTsvToCsv.java
+・W01SelectTableData.java
+・W01ShapeEvidence.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・W01SelectTableData.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -858,14 +876,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -875,42 +929,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1199,12 +1217,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:O22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1216,86 +1232,86 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="19"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="21" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="22"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:18" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="10" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="5" t="s">
         <v>44</v>
       </c>
@@ -1305,29 +1321,29 @@
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="10" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1337,29 +1353,29 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="10" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
@@ -1369,29 +1385,29 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="10" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1401,29 +1417,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="10" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="5" t="s">
         <v>44</v>
       </c>
@@ -1433,58 +1449,58 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="10" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="11"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="10" t="s">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="13"/>
       <c r="R10" s="7" t="s">
         <v>47</v>
       </c>
@@ -1494,29 +1510,29 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="10" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="11"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1526,29 +1542,29 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="16" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="10" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="11"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1558,29 +1574,29 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="10" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="13"/>
       <c r="R13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1590,29 +1606,29 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="16" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="10" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="13"/>
       <c r="R14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1622,29 +1638,29 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="10" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="6" t="s">
         <v>46</v>
       </c>
@@ -1654,29 +1670,29 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="10" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="13"/>
       <c r="R16" t="s">
         <v>47</v>
       </c>
@@ -1686,29 +1702,29 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="10" t="s">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="13"/>
       <c r="R17" t="s">
         <v>47</v>
       </c>
@@ -1718,29 +1734,29 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="16" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="10" t="s">
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="11"/>
+      <c r="Q18" s="13"/>
       <c r="R18" t="s">
         <v>47</v>
       </c>
@@ -1750,29 +1766,29 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="16" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="10" t="s">
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="13"/>
       <c r="R19" t="s">
         <v>47</v>
       </c>
@@ -1782,29 +1798,29 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="10" t="s">
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="11"/>
+      <c r="Q20" s="13"/>
       <c r="R20" t="s">
         <v>44</v>
       </c>
@@ -1814,29 +1830,29 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="13" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="10" t="s">
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="11"/>
+      <c r="Q21" s="13"/>
       <c r="R21" t="s">
         <v>49</v>
       </c>
@@ -1846,29 +1862,29 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="10" t="s">
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="13"/>
       <c r="R22" t="s">
         <v>46</v>
       </c>
@@ -1878,129 +1894,221 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="11"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="11"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="11"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="P4:Q4"/>
@@ -2017,98 +2125,6 @@
     <mergeCell ref="H3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">
@@ -2117,7 +2133,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"採用,不採用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2126,13 +2142,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C3:D28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$C:$C</xm:f>
           </x14:formula1>
@@ -2145,12 +2161,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2184,7 +2198,9 @@
       <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
@@ -2197,7 +2213,9 @@
       <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
@@ -2210,7 +2228,9 @@
       <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
@@ -2223,7 +2243,9 @@
       <c r="D6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
@@ -2236,7 +2258,9 @@
       <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
@@ -2264,7 +2288,7 @@
       <c r="D9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2276,7 +2300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Documents\GitHub\wiss1tool-wiss1\document\04_案件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C072E-D6A5-44E1-AF75-8C633BB92925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
     <sheet name="影響調査" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -708,7 +707,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -882,11 +881,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -919,15 +927,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,10 +1216,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1232,57 +1233,57 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="17"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="22" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="19" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="20"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="2:18" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
@@ -1292,26 +1293,26 @@
       <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="12"/>
       <c r="R4" s="5" t="s">
         <v>44</v>
       </c>
@@ -1324,26 +1325,26 @@
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="12"/>
       <c r="R5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1356,26 +1357,26 @@
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
@@ -1388,26 +1389,26 @@
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="13"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1420,26 +1421,26 @@
       <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="5" t="s">
         <v>44</v>
       </c>
@@ -1452,26 +1453,26 @@
       <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
       <c r="P9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="13"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
@@ -1481,26 +1482,26 @@
       <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
       <c r="P10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="13"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="7" t="s">
         <v>47</v>
       </c>
@@ -1513,26 +1514,26 @@
       <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="13"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1545,26 +1546,26 @@
       <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="13"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1577,26 +1578,26 @@
       <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1609,26 +1610,26 @@
       <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="13"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1641,26 +1642,26 @@
       <c r="C15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="6" t="s">
         <v>46</v>
       </c>
@@ -1673,26 +1674,26 @@
       <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
       <c r="P16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="12"/>
       <c r="R16" t="s">
         <v>47</v>
       </c>
@@ -1705,26 +1706,26 @@
       <c r="C17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="13"/>
+      <c r="Q17" s="12"/>
       <c r="R17" t="s">
         <v>47</v>
       </c>
@@ -1737,26 +1738,26 @@
       <c r="C18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
       <c r="P18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="13"/>
+      <c r="Q18" s="12"/>
       <c r="R18" t="s">
         <v>47</v>
       </c>
@@ -1769,26 +1770,26 @@
       <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
       <c r="P19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="12"/>
       <c r="R19" t="s">
         <v>47</v>
       </c>
@@ -1801,26 +1802,26 @@
       <c r="C20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="25" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
       <c r="P20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="13"/>
+      <c r="Q20" s="12"/>
       <c r="R20" t="s">
         <v>44</v>
       </c>
@@ -1833,26 +1834,26 @@
       <c r="C21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="25" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
       <c r="P21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="12"/>
       <c r="R21" t="s">
         <v>49</v>
       </c>
@@ -1865,26 +1866,26 @@
       <c r="C22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="16"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="13"/>
+      <c r="Q22" s="12"/>
       <c r="R22" t="s">
         <v>46</v>
       </c>
@@ -1895,20 +1896,20 @@
         <v/>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="13"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="str">
@@ -1916,20 +1917,20 @@
         <v/>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="13"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="str">
@@ -1937,20 +1938,20 @@
         <v/>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="13"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="str">
@@ -1958,20 +1959,20 @@
         <v/>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="13"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="str">
@@ -1979,20 +1980,20 @@
         <v/>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="16"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="13"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="str">
@@ -2000,23 +2001,115 @@
         <v/>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="16"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="13"/>
+      <c r="Q28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:O27"/>
@@ -2033,98 +2126,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:O26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">
@@ -2133,7 +2134,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28">
       <formula1>"採用,不採用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2142,13 +2143,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C3:D28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$C:$C</xm:f>
           </x14:formula1>
@@ -2161,10 +2162,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2300,7 +2303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A48811-006C-4F9C-B5EC-AD06EFC89BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
-    <sheet name="影響調査" sheetId="3" r:id="rId2"/>
+    <sheet name="更改案担当割表" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">更改案担当割表!$A$2:$G$25</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -675,40 +679,183 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・W01ToolMenu.java
-・W01ToolMenu.bat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・W01ToolMenu.java
-・W01ConvertFileCsvToTsv.java
-・W01ConvertFileTsvToCsv.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・W01ConvertFileCsvToTsv.java
-・W01ConvertFileTsvToCsv.java
-・W01ShapeEvidence.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・W01ToolMenu.java
-・W01ConvertFileCsvToTsv.java
-・W01ConvertFileTsvToCsv.java
-・W01SelectTableData.java
-・W01ShapeEvidence.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・W01SelectTableData.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリューム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・W01ConvertFileCsvToTsv.java</t>
+  </si>
+  <si>
+    <t>・W01ConvertFileTsvToCsv.java</t>
+  </si>
+  <si>
+    <t>・W01ShapeEvidence.java</t>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西尾</t>
+    <rPh sb="0" eb="2">
+      <t>ニシオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・W01ToolMenu.java</t>
+  </si>
+  <si>
+    <t>・W01SelectTableData.java</t>
+  </si>
+  <si>
+    <t>・W01ToolMenu.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・W01ToolMenu.bat</t>
+  </si>
+  <si>
+    <t>時間(h)</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※11/24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面イメージ図</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツール一覧</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・W01ToolMenu.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール管理表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/11/30期限</t>
+    <rPh sb="10" eb="12">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始予定日</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了予定日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・W01ConvertFileTsvToCsv.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・W01ConvertFileSelect.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西川</t>
+    <rPh sb="0" eb="2">
+      <t>ニシカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,8 +880,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,6 +929,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,6 +1089,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,12 +1398,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2134,7 +2314,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"採用,不採用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2143,13 +2323,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C3:D28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$C:$C</xm:f>
           </x14:formula1>
@@ -2162,12 +2342,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2175,9 +2353,18 @@
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.375" customWidth="1"/>
+    <col min="8" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H1" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2190,112 +2377,584 @@
       <c r="E2" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1">
+      <c r="F2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="29">
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="29" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="31">
+        <v>44151</v>
+      </c>
+      <c r="I3" s="31">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="31">
+        <v>44151</v>
+      </c>
+      <c r="I4" s="31">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="29">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="34">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="34">
+        <v>4</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1">
-        <f t="shared" ref="B5:B9" si="0">B4+1</f>
+      <c r="B11" s="29">
+        <f>B6+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D11" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="31">
+        <v>44158</v>
+      </c>
+      <c r="I11" s="31">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="31">
+        <v>44158</v>
+      </c>
+      <c r="I12" s="31">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1">
+        <f>B11+1</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:B16" si="0">B14+1</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="1">
+      <c r="B16" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D16" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
+      <c r="E16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="29">
+        <f>B16+1</f>
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>63</v>
+      <c r="E18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="31">
+        <v>44152</v>
+      </c>
+      <c r="I22" s="31">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="31">
+        <v>44152</v>
+      </c>
+      <c r="I23" s="31">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="31">
+        <v>44153</v>
+      </c>
+      <c r="I24" s="31">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G25" xr:uid="{97A43BC4-CDA7-4525-B4E4-E4796EA88A03}"/>
+  <mergeCells count="20">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A6:A10"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2303,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro\Desktop\最新版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A48811-006C-4F9C-B5EC-AD06EFC89BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">更改案担当割表!$A$2:$G$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -854,7 +853,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1039,14 +1038,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1057,59 +1107,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,10 +1397,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1413,86 +1412,86 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="20"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="25" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="22" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="23"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="2:18" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="11" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="12"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="5" t="s">
         <v>44</v>
       </c>
@@ -1502,29 +1501,29 @@
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="11" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1534,29 +1533,29 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="11" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
@@ -1566,29 +1565,29 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="11" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="19"/>
       <c r="R7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1598,29 +1597,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="17" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="11" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="5" t="s">
         <v>44</v>
       </c>
@@ -1630,58 +1629,58 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="17" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="11" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="11" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="12"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="7" t="s">
         <v>47</v>
       </c>
@@ -1691,29 +1690,29 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="17" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="11" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="19"/>
       <c r="R11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1723,29 +1722,29 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="17" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="11" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="12"/>
+      <c r="Q12" s="19"/>
       <c r="R12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1755,29 +1754,29 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="17" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="11" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="12"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1787,29 +1786,29 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="17" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="11" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="19"/>
       <c r="R14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1819,29 +1818,29 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="17" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="11" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="19"/>
       <c r="R15" s="6" t="s">
         <v>46</v>
       </c>
@@ -1851,29 +1850,29 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="17" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="11" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="12"/>
+      <c r="Q16" s="19"/>
       <c r="R16" t="s">
         <v>47</v>
       </c>
@@ -1883,29 +1882,29 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="17" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="11" t="s">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="12"/>
+      <c r="Q17" s="19"/>
       <c r="R17" t="s">
         <v>47</v>
       </c>
@@ -1915,29 +1914,29 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="17" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="11" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="12"/>
+      <c r="Q18" s="19"/>
       <c r="R18" t="s">
         <v>47</v>
       </c>
@@ -1947,29 +1946,29 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="17" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="11" t="s">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="12"/>
+      <c r="Q19" s="19"/>
       <c r="R19" t="s">
         <v>47</v>
       </c>
@@ -1979,29 +1978,29 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="14" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="11" t="s">
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="12"/>
+      <c r="Q20" s="19"/>
       <c r="R20" t="s">
         <v>44</v>
       </c>
@@ -2011,29 +2010,29 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="14" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="11" t="s">
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="12"/>
+      <c r="Q21" s="19"/>
       <c r="R21" t="s">
         <v>49</v>
       </c>
@@ -2043,29 +2042,29 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="17" t="s">
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="11" t="s">
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="12"/>
+      <c r="Q22" s="19"/>
       <c r="R22" t="s">
         <v>46</v>
       </c>
@@ -2075,129 +2074,221 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="12"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="12"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="12"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="12"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:O4"/>
     <mergeCell ref="P4:Q4"/>
@@ -2214,98 +2305,6 @@
     <mergeCell ref="H3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">
@@ -2314,7 +2313,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28">
       <formula1>"採用,不採用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2323,13 +2322,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C3:D28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$C:$C</xm:f>
           </x14:formula1>
@@ -2342,10 +2341,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2357,7 +2358,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2391,17 +2392,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="34">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="34" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -2413,18 +2414,18 @@
       <c r="G3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="13">
         <v>44151</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="13">
         <v>44151</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="9" t="s">
         <v>68</v>
       </c>
@@ -2434,18 +2435,18 @@
       <c r="G4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="13">
         <v>44151</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="13">
         <v>44151</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="9" t="s">
         <v>69</v>
       </c>
@@ -2455,21 +2456,25 @@
       <c r="G5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="13">
+        <v>44155</v>
+      </c>
+      <c r="I5" s="13">
+        <v>44159</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="34">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="34" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -2487,48 +2492,48 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="16">
         <v>4</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="33" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="16">
         <v>4</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="9" t="s">
         <v>73</v>
       </c>
@@ -2544,10 +2549,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="9" t="s">
         <v>69</v>
       </c>
@@ -2563,17 +2568,17 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="34">
         <f>B6+1</f>
         <v>3</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="34" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -2585,18 +2590,18 @@
       <c r="G11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="13">
         <v>44158</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="13">
         <v>44159</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="9" t="s">
         <v>68</v>
       </c>
@@ -2606,18 +2611,18 @@
       <c r="G12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="13">
         <v>44158</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="13">
         <v>44159</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="9" t="s">
         <v>69</v>
       </c>
@@ -2627,11 +2632,15 @@
       <c r="G13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="13">
+        <v>44159</v>
+      </c>
+      <c r="I13" s="13">
+        <v>44160</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="1">
@@ -2657,7 +2666,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="1">
@@ -2683,17 +2692,17 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="34" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -2705,14 +2714,18 @@
       <c r="G16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="13">
+        <v>44153</v>
+      </c>
+      <c r="I16" s="13">
+        <v>44155</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="9" t="s">
         <v>75</v>
       </c>
@@ -2722,21 +2735,25 @@
       <c r="G17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="13">
+        <v>44153</v>
+      </c>
+      <c r="I17" s="13">
+        <v>44155</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="34">
         <f>B16+1</f>
         <v>7</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -2748,14 +2765,18 @@
       <c r="G18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="13">
+        <v>44151</v>
+      </c>
+      <c r="I18" s="13">
+        <v>44153</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="1" t="s">
         <v>67</v>
       </c>
@@ -2763,16 +2784,20 @@
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H19" s="13">
+        <v>44151</v>
+      </c>
+      <c r="I19" s="13">
+        <v>44152</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
@@ -2780,17 +2805,21 @@
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="13">
+        <v>44151</v>
+      </c>
+      <c r="I20" s="13">
+        <v>44152</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="32" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="14" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="1">
@@ -2799,8 +2828,12 @@
       <c r="G21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="13">
+        <v>44151</v>
+      </c>
+      <c r="I21" s="13">
+        <v>44153</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -2816,10 +2849,10 @@
       <c r="G22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="13">
         <v>44152</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="13">
         <v>44152</v>
       </c>
     </row>
@@ -2837,10 +2870,10 @@
       <c r="G23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="13">
         <v>44152</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="13">
         <v>44152</v>
       </c>
     </row>
@@ -2858,10 +2891,10 @@
       <c r="G24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="13">
         <v>44153</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="13">
         <v>44155</v>
       </c>
     </row>
@@ -2932,20 +2965,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G25" xr:uid="{97A43BC4-CDA7-4525-B4E4-E4796EA88A03}"/>
+  <autoFilter ref="A2:G25"/>
   <mergeCells count="20">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="D3:D5"/>
@@ -2954,6 +2975,18 @@
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2962,7 +2995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0073\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/04_案件/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="114_{D5A5E4D1-6665-4840-A77D-665C4ED20AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BC033C6-E292-4270-9A3E-583B694F930D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">更改案担当割表!$A$2:$G$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -853,7 +855,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1059,11 +1061,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1096,15 +1107,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1397,74 +1399,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="25" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="26"/>
-    </row>
-    <row r="4" spans="2:18" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q3" s="29"/>
+    </row>
+    <row r="4" spans="2:18" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
         <v>1</v>
@@ -1472,31 +1474,31 @@
       <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
         <v>2</v>
@@ -1504,31 +1506,31 @@
       <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="22"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
       <c r="P5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="18"/>
       <c r="R5" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1536,31 +1538,31 @@
       <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="18"/>
       <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1568,31 +1570,31 @@
       <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
       <c r="P7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1600,31 +1602,31 @@
       <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1632,28 +1634,28 @@
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1661,31 +1663,31 @@
       <c r="C10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="22"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
       <c r="P10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1693,31 +1695,31 @@
       <c r="C11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
       <c r="P11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1725,31 +1727,31 @@
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
       <c r="P12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1757,31 +1759,31 @@
       <c r="C13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="22"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
       <c r="P13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1789,31 +1791,31 @@
       <c r="C14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="22"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
       <c r="P14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1821,31 +1823,31 @@
       <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="22"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
       <c r="P15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="18"/>
       <c r="R15" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:18" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1853,31 +1855,31 @@
       <c r="C16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
       <c r="P16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="18"/>
       <c r="R16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1885,31 +1887,31 @@
       <c r="C17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
       <c r="P17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="18"/>
       <c r="R17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1917,31 +1919,31 @@
       <c r="C18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="25"/>
       <c r="P18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="19"/>
+      <c r="Q18" s="18"/>
       <c r="R18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1949,31 +1951,31 @@
       <c r="C19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
       <c r="P19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="19"/>
+      <c r="Q19" s="18"/>
       <c r="R19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1981,31 +1983,31 @@
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="31" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="33"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
       <c r="P20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="19"/>
+      <c r="Q20" s="18"/>
       <c r="R20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2013,31 +2015,31 @@
       <c r="C21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="31" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
       <c r="P21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="19"/>
+      <c r="Q21" s="18"/>
       <c r="R21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2045,158 +2047,250 @@
       <c r="C22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20" t="s">
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="22"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
       <c r="P22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="18"/>
       <c r="R22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="19"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
       <c r="P23" s="17"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="19"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="33"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
       <c r="P24" s="17"/>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="22"/>
       <c r="P25" s="17"/>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="33"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="22"/>
       <c r="P26" s="17"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="19"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
       <c r="P27" s="17"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="33"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
       <c r="P28" s="17"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:O27"/>
@@ -2213,98 +2307,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:O26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:Q28">
@@ -2313,7 +2315,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5 P3:Q28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"採用,不採用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2322,13 +2324,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C3:D28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$C:$C</xm:f>
           </x14:formula1>
@@ -2341,28 +2343,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.375" customWidth="1"/>
-    <col min="8" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H1" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>63</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>64</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -2442,7 +2442,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -2463,7 +2463,7 @@
         <v>44159</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>65</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>65</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>44159</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -2618,7 +2618,7 @@
         <v>44159</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -2639,7 +2639,7 @@
         <v>44160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>66</v>
       </c>
@@ -2662,10 +2662,14 @@
       <c r="G14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H14" s="13">
+        <v>44152</v>
+      </c>
+      <c r="I14" s="13">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>66</v>
       </c>
@@ -2688,10 +2692,14 @@
       <c r="G15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H15" s="13">
+        <v>44160</v>
+      </c>
+      <c r="I15" s="13">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>64</v>
       </c>
@@ -2721,7 +2729,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -2742,7 +2750,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>65</v>
       </c>
@@ -2772,7 +2780,7 @@
         <v>44153</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -2793,7 +2801,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -2814,7 +2822,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -2835,7 +2843,7 @@
         <v>44153</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2856,7 +2864,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2877,7 +2885,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2898,7 +2906,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2912,10 +2920,14 @@
       <c r="G25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H25" s="13">
+        <v>44151</v>
+      </c>
+      <c r="I25" s="13">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E28" s="1" t="s">
         <v>92</v>
       </c>
@@ -2926,7 +2938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E29" s="1" t="s">
         <v>71</v>
       </c>
@@ -2937,7 +2949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="s">
         <v>91</v>
       </c>
@@ -2948,12 +2960,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E32" s="1" t="s">
         <v>71</v>
       </c>
@@ -2965,8 +2977,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G25"/>
+  <autoFilter ref="A2:G25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="20">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="D3:D5"/>
@@ -2975,18 +2999,6 @@
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2995,16 +3007,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3012,7 +3024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3020,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +3040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3036,7 +3048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3052,7 +3064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3060,7 +3072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3068,7 +3080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3076,7 +3088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3084,7 +3096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>24</v>
       </c>

--- a/document/04_案件/追加要件案.xlsx
+++ b/document/04_案件/追加要件案.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/04_案件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiss1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{D5A5E4D1-6665-4840-A77D-665C4ED20AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BC033C6-E292-4270-9A3E-583B694F930D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B627D-8861-418D-A0C9-BAC95105784B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更改案" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">更改案担当割表!$A$2:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">更改案担当割表!$B$2:$H$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="95">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -748,13 +748,6 @@
     <t>・W01ToolMenu.bat</t>
   </si>
   <si>
-    <t>時間(h)</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※11/24</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -810,26 +803,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>開始予定日</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ヨテイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了予定日</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ヨテイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・W01ConvertFileTsvToCsv.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -848,6 +821,101 @@
     <t>中村</t>
     <rPh sb="0" eb="2">
       <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装工数
+(h)</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装開始
+予定日</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装終了
+予定日</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※その他要件追加に伴う付帯作業</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※事務所出社時に全員で意識合わせして1日で対応予定</t>
+    <rPh sb="1" eb="3">
+      <t>ジム</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュッシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -940,7 +1008,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1000,13 +1068,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,6 +1206,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,6 +1262,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,96 +1582,96 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="26"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="31" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="28" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="29"/>
-    </row>
-    <row r="4" spans="2:18" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="30"/>
+    </row>
+    <row r="4" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <f>IF(C4="","",ROW()-3)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="23" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="17" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="18"/>
+      <c r="Q4" s="19"/>
       <c r="R4" s="5" t="s">
         <v>44</v>
       </c>
@@ -1503,29 +1681,29 @@
         <f t="shared" ref="B5:B28" si="0">IF(C5="","",ROW()-3)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="23" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="17" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="19"/>
       <c r="R5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1535,29 +1713,29 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="23" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="17" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="18"/>
+      <c r="Q6" s="19"/>
       <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
@@ -1567,29 +1745,29 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="23" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="17" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="18"/>
+      <c r="Q7" s="19"/>
       <c r="R7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1599,29 +1777,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="23" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="17" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="5" t="s">
         <v>44</v>
       </c>
@@ -1631,58 +1809,58 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="17" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="23" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="17" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="7" t="s">
         <v>47</v>
       </c>
@@ -1692,29 +1870,29 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="23" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="17" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="19"/>
       <c r="R11" s="6" t="s">
         <v>46</v>
       </c>
@@ -1724,29 +1902,29 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="23" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="17" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="19"/>
       <c r="R12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1756,29 +1934,29 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="23" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="17" t="s">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="4" t="s">
         <v>46</v>
       </c>
@@ -1788,29 +1966,29 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="23" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="17" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="19"/>
       <c r="R14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1820,29 +1998,29 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="23" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="17" t="s">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="18"/>
+      <c r="Q15" s="19"/>
       <c r="R15" s="6" t="s">
         <v>46</v>
       </c>
@@ -1852,29 +2030,29 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="23" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="17" t="s">
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="18"/>
+      <c r="Q16" s="19"/>
       <c r="R16" t="s">
         <v>47</v>
       </c>
@@ -1884,29 +2062,29 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="23" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="17" t="s">
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="18"/>
+      <c r="Q17" s="19"/>
       <c r="R17" t="s">
         <v>47</v>
       </c>
@@ -1916,29 +2094,29 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="23" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="17" t="s">
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="18"/>
+      <c r="Q18" s="19"/>
       <c r="R18" t="s">
         <v>47</v>
       </c>
@@ -1948,29 +2126,29 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="23" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="17" t="s">
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="18"/>
+      <c r="Q19" s="19"/>
       <c r="R19" t="s">
         <v>47</v>
       </c>
@@ -1980,29 +2158,29 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="17" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="18"/>
+      <c r="Q20" s="19"/>
       <c r="R20" t="s">
         <v>44</v>
       </c>
@@ -2012,29 +2190,29 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="20" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="17" t="s">
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="18"/>
+      <c r="Q21" s="19"/>
       <c r="R21" t="s">
         <v>49</v>
       </c>
@@ -2044,29 +2222,29 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="23" t="s">
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="17" t="s">
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="18"/>
+      <c r="Q22" s="19"/>
       <c r="R22" t="s">
         <v>46</v>
       </c>
@@ -2076,126 +2254,126 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="108">
@@ -2344,661 +2522,775 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H1" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I1" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="I2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>IF(H3="","",ROW()-2)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="34">
+      <c r="C3" s="35">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H3" s="13">
-        <v>44151</v>
       </c>
       <c r="I3" s="13">
         <v>44151</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="9" t="s">
+      <c r="J3" s="13">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A25" si="0">IF(H4="","",ROW()-2)</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H4" s="13">
-        <v>44151</v>
       </c>
       <c r="I4" s="13">
         <v>44151</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="9" t="s">
+      <c r="J4" s="13">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="H5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="13">
         <v>44155</v>
       </c>
-      <c r="I5" s="13">
+      <c r="J5" s="13">
         <v>44159</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="34">
-        <f>B3+1</f>
+      <c r="C6" s="35">
+        <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="16">
+        <v>4</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="44"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="35">
+        <f>C6+1</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="13">
+        <v>44158</v>
+      </c>
+      <c r="J11" s="13">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="13">
+        <v>44158</v>
+      </c>
+      <c r="J12" s="13">
+        <v>44159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="13">
+        <v>44159</v>
+      </c>
+      <c r="J13" s="13">
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1">
+        <f>C11+1</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="13">
+        <v>44152</v>
+      </c>
+      <c r="J14" s="13">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:C16" si="1">C14+1</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="13">
+        <v>44160</v>
+      </c>
+      <c r="J15" s="13">
+        <v>44161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="13">
+        <v>44153</v>
+      </c>
+      <c r="J16" s="13">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="13">
+        <v>44153</v>
+      </c>
+      <c r="J17" s="13">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="35">
+        <f>C16+1</f>
+        <v>7</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="13">
+        <v>44151</v>
+      </c>
+      <c r="J18" s="13">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="13">
+        <v>44151</v>
+      </c>
+      <c r="J19" s="13">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="13">
+        <v>44151</v>
+      </c>
+      <c r="J20" s="13">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="13">
+        <v>44151</v>
+      </c>
+      <c r="J21" s="13">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="16">
-        <v>4</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="16">
-        <v>4</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="34">
-        <f>B6+1</f>
-        <v>3</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="13">
-        <v>44158</v>
-      </c>
-      <c r="I11" s="13">
-        <v>44159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="13">
-        <v>44158</v>
-      </c>
-      <c r="I12" s="13">
-        <v>44159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="13">
-        <v>44159</v>
-      </c>
-      <c r="I13" s="13">
-        <v>44160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="1">
-        <f>B11+1</f>
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="13">
-        <v>44152</v>
-      </c>
-      <c r="I14" s="13">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" ref="B15:B16" si="0">B14+1</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="13">
-        <v>44160</v>
-      </c>
-      <c r="I15" s="13">
-        <v>44161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="34">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="13">
-        <v>44153</v>
-      </c>
-      <c r="I16" s="13">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="13">
-        <v>44153</v>
-      </c>
-      <c r="I17" s="13">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="34">
-        <f>B16+1</f>
-        <v>7</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="13">
-        <v>44151</v>
-      </c>
-      <c r="I18" s="13">
-        <v>44153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="13">
-        <v>44151</v>
-      </c>
-      <c r="I19" s="13">
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="13">
-        <v>44151</v>
-      </c>
-      <c r="I20" s="13">
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="13">
-        <v>44151</v>
-      </c>
-      <c r="I21" s="13">
-        <v>44153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="13">
-        <v>44152</v>
       </c>
       <c r="I22" s="13">
         <v>44152</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="J22" s="13">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="1">
         <v>3</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H23" s="13">
-        <v>44152</v>
       </c>
       <c r="I23" s="13">
         <v>44152</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
+      <c r="J23" s="13">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="13">
+        <v>44153</v>
+      </c>
+      <c r="J24" s="13">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="1">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="13">
-        <v>44153</v>
-      </c>
-      <c r="I24" s="13">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="13">
-        <v>44151</v>
+      <c r="H25" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="I25" s="13">
         <v>44151</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E28" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="J25" s="13">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E31" s="1"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E32" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="1">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <mergeCells count="20">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
+  <autoFilter ref="B2:H25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="24">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="E6:E10"/>
     <mergeCell ref="D6:D10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3014,7 +3306,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
